--- a/2025-03-03_4o-mini_feedback_sheets/diff_gen/CREST syndrome with Type 2 Achalasia_vs_Scleroderma.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/diff_gen/CREST syndrome with Type 2 Achalasia_vs_Scleroderma.xlsx
@@ -489,17 +489,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Skin changes are characteristic of CREST syndrome and can be more pronounced than in Scleroderma.</t>
+          <t>Skin changes are characteristic of CREST syndrome and less pronounced in Scleroderma.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Internal organ involvement (such as renal or cardiac issues)</t>
+          <t>Internal organ involvement (such as renal or cardiac)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Scleroderma often leads to significant internal organ involvement, which is less common in CREST syndrome.</t>
+          <t>Internal organ involvement is more common in Scleroderma compared to CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -516,12 +516,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fatigue and malaise</t>
+          <t>Sclerodactyly (thickening and tightening of the skin on fingers)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Fatigue and malaise are more generalized symptoms often reported in Scleroderma.</t>
+          <t>Sclerodactyly is a hallmark of Scleroderma and not typically seen in CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -533,17 +533,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gastroesophageal reflux is often reported in patients with Type 2 Achalasia, which is associated with CREST syndrome.</t>
+          <t>Gastroesophageal reflux is more prevalent in patients with Type 2 Achalasia, which is associated with CREST syndrome.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Joint pain and swelling</t>
+          <t>Digital ulcers</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Joint pain and swelling are more frequently reported in Scleroderma than in CREST syndrome.</t>
+          <t>Digital ulcers are more frequently associated with Scleroderma than with CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -555,17 +555,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension is more frequently observed in CREST syndrome compared to Scleroderma.</t>
+          <t>Pulmonary hypertension is a common complication in CREST syndrome, distinguishing it from Scleroderma.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Dysphagia without esophageal motility issues</t>
+          <t>Gastrointestinal motility disorders (not specifically achalasia)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Dysphagia in Scleroderma may occur without the specific motility issues seen in Type 2 Achalasia.</t>
+          <t>Gastrointestinal motility disorders are more generalized in Scleroderma compared to the specific achalasia in CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -613,22 +613,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>History of esophageal dilation or surgery</t>
+          <t>History of esophageal dilation procedures</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Patients with CREST syndrome and Type 2 Achalasia often undergo esophageal dilation or surgical interventions for dysphagia.</t>
+          <t>Patients with CREST syndrome and Type 2 Achalasia often undergo esophageal dilation due to dysphagia, which is less common in Scleroderma.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>History of diffuse skin thickening</t>
+          <t>History of diffuse skin involvement</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Diffuse skin thickening is a hallmark of Scleroderma, which is not typically seen in CREST syndrome.</t>
+          <t>Diffuse skin involvement is a classic feature of Scleroderma, distinguishing it from the localized skin changes in CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is a common feature of CREST syndrome, distinguishing it from Scleroderma.</t>
+          <t>Raynaud's phenomenon is a hallmark of CREST syndrome and is less frequently reported in Scleroderma.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -657,12 +657,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>History of skin thickening limited to fingers and face</t>
+          <t>History of skin thickening localized to fingers</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Skin changes in CREST syndrome are typically limited compared to the widespread skin involvement in Scleroderma.</t>
+          <t>Localized skin thickening is more characteristic of CREST syndrome compared to the diffuse skin involvement seen in Scleroderma.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Renal crisis is a serious complication more frequently seen in Scleroderma compared to CREST syndrome.</t>
+          <t>Renal crisis is a serious complication that occurs more frequently in Scleroderma compared to CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GERD is more prevalent in CREST syndrome due to esophageal motility issues, leading to the use of proton pump inhibitors.</t>
+          <t>GERD is more prevalent in patients with Type 2 Achalasia, leading to the use of proton pump inhibitors, which is less common in Scleroderma.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -694,7 +694,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Immunosuppressive medications are more commonly prescribed for Scleroderma due to its systemic nature.</t>
+          <t>Immunosuppressive therapy is more commonly required in Scleroderma due to its systemic nature, unlike in CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension is more frequently associated with CREST syndrome than with Scleroderma.</t>
+          <t>Pulmonary hypertension is a common complication in CREST syndrome, while it is less frequently noted in Scleroderma.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>History of gastrointestinal motility disorders beyond achalasia</t>
+          <t>History of gastrointestinal motility disorders</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Scleroderma can cause a wider range of gastrointestinal motility issues compared to the specific achalasia seen in CREST syndrome.</t>
+          <t>While gastrointestinal issues can occur in both, motility disorders are more prevalent in Scleroderma, distinguishing it from Type 2 Achalasia.</t>
         </is>
       </c>
     </row>
@@ -774,19 +774,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Family history of systemic sclerosis</t>
+          <t>Family history of Scleroderma</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A direct family history of systemic sclerosis is more indicative of Scleroderma than CREST syndrome.</t>
+          <t>A direct family history of Scleroderma is a strong indicator for the diagnosis, as it has a genetic component.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Occupational exposure to silica or asbestos</t>
+          <t>Occupational exposure to silica or other environmental toxins</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -796,34 +796,34 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>History of skin changes such as thickening or tightening</t>
+          <t>History of Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Skin changes are more characteristic of Scleroderma, distinguishing it from CREST syndrome.</t>
+          <t>Raynaud's phenomenon is more commonly associated with Scleroderma, making it a distinguishing feature.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>History of esophageal symptoms</t>
+          <t>History of esophageal symptoms or dysphagia</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Patients with CREST syndrome often report esophageal dysmotility, which is less common in Scleroderma.</t>
+          <t>Dysphagia is more prevalent in CREST syndrome due to Type 2 Achalasia, distinguishing it from Scleroderma.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>History of pulmonary complications</t>
+          <t>History of pulmonary fibrosis or interstitial lung disease</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Pulmonary complications are more commonly associated with Scleroderma than with CREST syndrome.</t>
+          <t>These respiratory complications are more frequently seen in Scleroderma, indicating a different disease process.</t>
         </is>
       </c>
     </row>
@@ -835,39 +835,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Engagement in activities that stress the vascular system may be more prevalent in CREST syndrome patients.</t>
+          <t>Increased risk of vascular issues is more characteristic of CREST syndrome, which can lead to related complications.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Involvement in high-stress occupations</t>
+          <t>History of gastrointestinal motility disorders without esophageal involvement</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>High-stress occupations may correlate more with Scleroderma due to its association with stress-related exacerbations.</t>
+          <t>Gastrointestinal motility issues are common in Scleroderma but may not specifically involve the esophagus as in Type 2 Achalasia.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of Raynaud's phenomenon</t>
+          <t>History of limited skin involvement</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is a hallmark of CREST syndrome and is less frequently reported in Scleroderma.</t>
+          <t>Limited skin involvement is more typical in CREST syndrome compared to the diffuse skin changes seen in Scleroderma.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>History of gastrointestinal symptoms unrelated to achalasia</t>
+          <t>History of joint pain or arthritis</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Gastrointestinal symptoms in Scleroderma can be more diverse and severe compared to those in CREST syndrome.</t>
+          <t>Joint pain is more prevalent in Scleroderma, which can help differentiate it from CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -920,61 +920,61 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This finding is more characteristic of CREST syndrome, which typically presents with localized skin changes.</t>
+          <t>This finding is more characteristic of CREST syndrome, which presents with localized sclerodactyly.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Diffuse skin thickening</t>
+          <t>Skin thickening over the trunk and proximal extremities</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Diffuse skin thickening is a classic finding in Scleroderma, distinguishing it from the limited skin changes in CREST syndrome.</t>
+          <t>This finding is indicative of diffuse scleroderma, which is more extensive than the limited skin involvement in CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dysphagia (difficulty swallowing) with esophageal dilation</t>
+          <t>Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Type 2 Achalasia is associated with esophageal dilation and dysphagia, which is less common in Scleroderma.</t>
+          <t>Raynaud's is more prevalent in CREST syndrome and can be associated with esophageal motility issues.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Pulmonary fibrosis on examination</t>
+          <t>Pulmonary fibrosis</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Pulmonary fibrosis is more commonly associated with Scleroderma than with CREST syndrome.</t>
+          <t>Pulmonary fibrosis is a common complication of scleroderma and less frequently seen in CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Calcinosis cutis (calcium deposits in the skin)</t>
+          <t>Dysphagia (difficulty swallowing)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Calcinosis is a hallmark of CREST syndrome and is not typically seen in Scleroderma.</t>
+          <t>Dysphagia is common in Type 2 Achalasia due to esophageal motility dysfunction, which is a feature of CREST syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon</t>
+          <t>Gastrointestinal motility issues beyond esophagus</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>While Raynaud's can occur in both, it is more severe and widespread in Scleroderma.</t>
+          <t>Scleroderma can cause widespread gastrointestinal involvement, while CREST syndrome is more localized.</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Telangiectasia is more frequently observed in CREST syndrome compared to Scleroderma.</t>
+          <t>Telangiectasia is a hallmark of CREST syndrome and less commonly seen in Scleroderma.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -996,29 +996,29 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Joint contractures are more prevalent in Scleroderma due to systemic involvement.</t>
+          <t>Joint contractures are more common in scleroderma due to skin and soft tissue involvement.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Limited sclerodactyly (skin tightening of fingers)</t>
+          <t>Calcinosis cutis (calcium deposits in the skin)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>While both conditions can present with sclerodactyly, the limited form is more indicative of CREST syndrome.</t>
+          <t>Calcinosis is more frequently associated with CREST syndrome than with diffuse scleroderma.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Gastrointestinal motility disorders without esophageal dilation</t>
+          <t>Sclerodactyly (thickened skin on fingers)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Gastrointestinal issues are common in Scleroderma, but without the specific esophageal dilation seen in Type 2 Achalasia.</t>
+          <t>Sclerodactyly is a classic sign of scleroderma and is more pronounced than in CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>This imaging finding is indicative of achalasia and is more common in patients with CREST syndrome.</t>
+          <t>This imaging finding is more common in patients with Type 2 Achalasia, indicating esophageal motility issues.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>These antibodies are more specific for diffuse Scleroderma and are not commonly associated with CREST syndrome.</t>
+          <t>These antibodies are more commonly associated with diffuse Scleroderma rather than CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>These antibodies are more frequently found in CREST syndrome compared to Scleroderma.</t>
+          <t>These antibodies are more frequently associated with CREST syndrome than with Scleroderma.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>This finding is more common in Scleroderma and indicates pulmonary involvement distinct from CREST syndrome.</t>
+          <t>This finding is more indicative of Scleroderma, which often leads to pulmonary complications.</t>
         </is>
       </c>
     </row>
@@ -1137,17 +1137,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>While both conditions can show lung involvement, restrictive patterns are more pronounced in CREST syndrome.</t>
+          <t>While both conditions can show lung involvement, the pattern is more pronounced in CREST syndrome due to fibrosis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Echocardiogram showing right heart strain or pulmonary hypertension</t>
+          <t>Echocardiogram showing right heart failure or pulmonary hypertension</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension is more frequently associated with Scleroderma than with CREST syndrome.</t>
+          <t>These cardiac complications are more frequently seen in Scleroderma than in CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -1164,12 +1164,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Renal function tests showing renal crisis</t>
+          <t>Laboratory tests showing renal involvement (elevated creatinine)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Renal crisis is a serious complication more associated with Scleroderma than with CREST syndrome.</t>
+          <t>Renal crisis is a significant complication of Scleroderma, distinguishing it from CREST syndrome.</t>
         </is>
       </c>
     </row>

--- a/2025-03-03_4o-mini_feedback_sheets/diff_gen/CREST syndrome with Type 2 Achalasia_vs_Scleroderma.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/diff_gen/CREST syndrome with Type 2 Achalasia_vs_Scleroderma.xlsx
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dysphagia (difficulty swallowing)</t>
+          <t>Intermittent dysphagia for solids and liquids</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dysphagia is more commonly associated with Type 2 Achalasia, which is a feature of CREST syndrome.</t>
+          <t>Type 2 Achalasia is characterized by dysphagia for both solids and liquids due to esophageal motility disorder.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Widespread skin involvement</t>
+          <t>Progressive skin thickening</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Widespread skin involvement is more characteristic of Scleroderma than CREST syndrome.</t>
+          <t>Scleroderma is characterized by progressive skin thickening, which is less prominent in CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Skin changes (such as thickening or tightening)</t>
+          <t>Chest pain</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Skin changes are characteristic of CREST syndrome and less pronounced in Scleroderma.</t>
+          <t>Chest pain is more commonly associated with esophageal motility disorders like Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Internal organ involvement (such as renal or cardiac)</t>
+          <t>Digital ulcers</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Internal organ involvement is more common in Scleroderma compared to CREST syndrome.</t>
+          <t>Digital ulcers are more common in scleroderma due to severe vascular involvement.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon</t>
+          <t>Regurgitation of undigested food</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is a classic feature of CREST syndrome and less frequently seen in Scleroderma.</t>
+          <t>Regurgitation is a common symptom in achalasia due to esophageal retention of food.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sclerodactyly (thickening and tightening of the skin on fingers)</t>
+          <t>Pulmonary symptoms</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sclerodactyly is a hallmark of Scleroderma and not typically seen in CREST syndrome.</t>
+          <t>Pulmonary involvement is more common in scleroderma, especially interstitial lung disease.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Gastroesophageal reflux symptoms</t>
+          <t>No significant skin changes</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gastroesophageal reflux is more prevalent in patients with Type 2 Achalasia, which is associated with CREST syndrome.</t>
+          <t>CREST syndrome may have limited skin involvement compared to diffuse scleroderma.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Digital ulcers</t>
+          <t>Severe fatigue and joint pain</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Digital ulcers are more frequently associated with Scleroderma than with CREST syndrome.</t>
+          <t>Systemic symptoms like severe fatigue and joint pain are more pronounced in scleroderma.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension</t>
+          <t>Raynaud's phenomenon with esophageal symptoms</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension is a common complication in CREST syndrome, distinguishing it from Scleroderma.</t>
+          <t>Raynaud's phenomenon is part of CREST syndrome, and when combined with esophageal symptoms, it suggests CREST with Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Gastrointestinal motility disorders (not specifically achalasia)</t>
+          <t>Renal crisis</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Gastrointestinal motility disorders are more generalized in Scleroderma compared to the specific achalasia in CREST syndrome.</t>
+          <t>Renal crisis is a serious complication of scleroderma, not typically seen in CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -613,110 +613,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>History of esophageal dilation procedures</t>
+          <t>History of esophageal motility disorder</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Patients with CREST syndrome and Type 2 Achalasia often undergo esophageal dilation due to dysphagia, which is less common in Scleroderma.</t>
+          <t>Type 2 Achalasia is characterized by esophageal motility disorder, which is more specific to CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>History of diffuse skin involvement</t>
+          <t>History of diffuse skin thickening</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Diffuse skin involvement is a classic feature of Scleroderma, distinguishing it from the localized skin changes in CREST syndrome.</t>
+          <t>Diffuse skin thickening is more characteristic of scleroderma than CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Previous diagnosis of Raynaud's phenomenon</t>
+          <t>Previous diagnosis of limited scleroderma</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is a hallmark of CREST syndrome and is less frequently reported in Scleroderma.</t>
+          <t>CREST syndrome is a form of limited scleroderma, which is more specific to CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Previous diagnosis of interstitial lung disease</t>
+          <t>Pulmonary fibrosis</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Interstitial lung disease is more commonly associated with Scleroderma than with CREST syndrome.</t>
+          <t>Pulmonary fibrosis is more commonly associated with scleroderma than with CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>History of skin thickening localized to fingers</t>
+          <t>History of Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Localized skin thickening is more characteristic of CREST syndrome compared to the diffuse skin involvement seen in Scleroderma.</t>
+          <t>Raynaud's phenomenon is more commonly associated with CREST syndrome than with diffuse scleroderma.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>History of renal crisis</t>
+          <t>Renal crisis</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Renal crisis is a serious complication that occurs more frequently in Scleroderma compared to CREST syndrome.</t>
+          <t>Renal crisis is more specific to scleroderma and not typically seen in CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Use of proton pump inhibitors for GERD</t>
+          <t>Calcinosis cutis</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GERD is more prevalent in patients with Type 2 Achalasia, leading to the use of proton pump inhibitors, which is less common in Scleroderma.</t>
+          <t>Calcinosis cutis is a component of CREST syndrome and is less common in diffuse scleroderma.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Use of immunosuppressive therapy</t>
+          <t>History of anti-Scl-70 antibodies</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Immunosuppressive therapy is more commonly required in Scleroderma due to its systemic nature, unlike in CREST syndrome.</t>
+          <t>Anti-Scl-70 antibodies are more commonly associated with scleroderma than with CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of pulmonary hypertension</t>
+          <t>History of telangiectasia</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension is a common complication in CREST syndrome, while it is less frequently noted in Scleroderma.</t>
+          <t>Telangiectasia is a hallmark of CREST syndrome and less frequently seen in diffuse scleroderma.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>History of gastrointestinal motility disorders</t>
+          <t>Interstitial lung disease</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>While gastrointestinal issues can occur in both, motility disorders are more prevalent in Scleroderma, distinguishing it from Type 2 Achalasia.</t>
+          <t>Interstitial lung disease is more frequently seen in scleroderma than in CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -764,110 +764,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Family history of autoimmune diseases</t>
+          <t>Family history of CREST syndrome</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A family history of autoimmune diseases is more common in CREST syndrome, indicating a genetic predisposition.</t>
+          <t>A family history of CREST syndrome can suggest a genetic predisposition, which is more specific to CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Family history of Scleroderma</t>
+          <t>Family history of systemic sclerosis</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A direct family history of Scleroderma is a strong indicator for the diagnosis, as it has a genetic component.</t>
+          <t>A family history of systemic sclerosis is more indicative of Scleroderma, which is a broader condition than CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Occupational exposure to silica or other environmental toxins</t>
+          <t>Family history of esophageal motility disorders</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Such exposures are more frequently associated with CREST syndrome, which can increase the risk of developing related conditions.</t>
+          <t>A family history of esophageal motility disorders may indicate a genetic link to Type 2 Achalasia, which is part of CREST syndrome.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>History of Raynaud's phenomenon</t>
+          <t>Family history of autoimmune diseases</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is more commonly associated with Scleroderma, making it a distinguishing feature.</t>
+          <t>A family history of autoimmune diseases is more commonly associated with Scleroderma, which is an autoimmune condition.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>History of esophageal symptoms or dysphagia</t>
+          <t>Family history of Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dysphagia is more prevalent in CREST syndrome due to Type 2 Achalasia, distinguishing it from Scleroderma.</t>
+          <t>Raynaud's phenomenon is a component of CREST syndrome and a family history may suggest a predisposition to this condition.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>History of pulmonary fibrosis or interstitial lung disease</t>
+          <t>Family history of skin thickening disorders</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>These respiratory complications are more frequently seen in Scleroderma, indicating a different disease process.</t>
+          <t>Skin thickening is a hallmark of Scleroderma, and a family history can suggest a genetic predisposition.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Participation in activities that increase risk of vascular issues</t>
+          <t>Family history of telangiectasia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Increased risk of vascular issues is more characteristic of CREST syndrome, which can lead to related complications.</t>
+          <t>Telangiectasia is a specific feature of CREST syndrome, and a family history can indicate a genetic predisposition.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>History of gastrointestinal motility disorders without esophageal involvement</t>
+          <t>Family history of pulmonary fibrosis</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Gastrointestinal motility issues are common in Scleroderma but may not specifically involve the esophagus as in Type 2 Achalasia.</t>
+          <t>Pulmonary fibrosis is more commonly associated with Scleroderma than with CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of limited skin involvement</t>
+          <t>Family history of calcinosis</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Limited skin involvement is more typical in CREST syndrome compared to the diffuse skin changes seen in Scleroderma.</t>
+          <t>Calcinosis is a component of CREST syndrome, and a family history may suggest a genetic link.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>History of joint pain or arthritis</t>
+          <t>Family history of renal crisis</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Joint pain is more prevalent in Scleroderma, which can help differentiate it from CREST syndrome.</t>
+          <t>Renal crisis is a severe complication more specific to Scleroderma than CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -915,110 +915,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Skin thickening limited to fingers and face</t>
+          <t>Telangiectasia</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This finding is more characteristic of CREST syndrome, which presents with localized sclerodactyly.</t>
+          <t>Telangiectasia is more commonly associated with CREST syndrome than with diffuse scleroderma.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Skin thickening over the trunk and proximal extremities</t>
+          <t>Diffuse skin thickening</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>This finding is indicative of diffuse scleroderma, which is more extensive than the limited skin involvement in CREST syndrome.</t>
+          <t>Diffuse skin thickening is more characteristic of scleroderma than CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon</t>
+          <t>Calcinosis</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raynaud's is more prevalent in CREST syndrome and can be associated with esophageal motility issues.</t>
+          <t>Calcinosis is a hallmark of CREST syndrome and less common in diffuse scleroderma.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Pulmonary fibrosis</t>
+          <t>Sclerodactyly</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Pulmonary fibrosis is a common complication of scleroderma and less frequently seen in CREST syndrome.</t>
+          <t>Sclerodactyly is more pronounced in scleroderma compared to CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dysphagia (difficulty swallowing)</t>
+          <t>Digital pitting scars</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dysphagia is common in Type 2 Achalasia due to esophageal motility dysfunction, which is a feature of CREST syndrome.</t>
+          <t>Digital pitting scars are more frequently observed in CREST syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Gastrointestinal motility issues beyond esophagus</t>
+          <t>Pulmonary fibrosis</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Scleroderma can cause widespread gastrointestinal involvement, while CREST syndrome is more localized.</t>
+          <t>Pulmonary fibrosis is more commonly associated with scleroderma.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Telangiectasia (small dilated blood vessels)</t>
+          <t>Limited skin involvement</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Telangiectasia is a hallmark of CREST syndrome and less commonly seen in Scleroderma.</t>
+          <t>CREST syndrome typically presents with limited skin involvement compared to diffuse scleroderma.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Joint contractures</t>
+          <t>Renal crisis</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Joint contractures are more common in scleroderma due to skin and soft tissue involvement.</t>
+          <t>Renal crisis is a serious complication more frequently seen in scleroderma.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Calcinosis cutis (calcium deposits in the skin)</t>
+          <t>Raynaud's phenomenon with late onset</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Calcinosis is more frequently associated with CREST syndrome than with diffuse scleroderma.</t>
+          <t>Raynaud's phenomenon in CREST syndrome often has a later onset compared to scleroderma.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sclerodactyly (thickened skin on fingers)</t>
+          <t>Proximal muscle weakness</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sclerodactyly is a classic sign of scleroderma and is more pronounced than in CREST syndrome.</t>
+          <t>Proximal muscle weakness is more indicative of scleroderma.</t>
         </is>
       </c>
     </row>
@@ -1066,110 +1066,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Esophageal manometry showing decreased peristalsis and increased lower esophageal sphincter (LES) pressure</t>
+          <t>Esophageal manometry showing Type 2 Achalasia</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This finding is characteristic of Type 2 Achalasia, which is often associated with CREST syndrome.</t>
+          <t>Type 2 Achalasia is characterized by panesophageal pressurization, which is more indicative of CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Skin biopsy showing collagen deposition and fibrosis</t>
+          <t>Positive anti-Scl-70 antibody</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>This histological finding is a hallmark of Scleroderma and not typically seen in CREST syndrome.</t>
+          <t>Anti-Scl-70 antibody is more commonly associated with scleroderma.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Barium swallow study showing dilated esophagus with stasis</t>
+          <t>Barium swallow showing bird-beak appearance</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>This imaging finding is more common in patients with Type 2 Achalasia, indicating esophageal motility issues.</t>
+          <t>The bird-beak appearance is a classic finding in achalasia, supporting CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Positive anti-Scl-70 antibodies</t>
+          <t>Pulmonary function tests showing restrictive pattern</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>These antibodies are more commonly associated with diffuse Scleroderma rather than CREST syndrome.</t>
+          <t>A restrictive pattern on pulmonary function tests is more indicative of scleroderma.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Positive anti-centromere antibodies</t>
+          <t>Lower esophageal sphincter (LES) pressure elevated</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>These antibodies are more frequently associated with CREST syndrome than with Scleroderma.</t>
+          <t>Elevated LES pressure is more commonly associated with achalasia than with scleroderma.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Chest X-ray showing interstitial lung disease</t>
+          <t>Skin biopsy showing scleroderma changes</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>This finding is more indicative of Scleroderma, which often leads to pulmonary complications.</t>
+          <t>Histological changes in the skin biopsy are specific to scleroderma.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pulmonary function tests showing restrictive lung disease</t>
+          <t>Absence of peristalsis on esophageal manometry</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>While both conditions can show lung involvement, the pattern is more pronounced in CREST syndrome due to fibrosis.</t>
+          <t>Absence of peristalsis is a key feature of achalasia, supporting CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Echocardiogram showing right heart failure or pulmonary hypertension</t>
+          <t>Interstitial lung disease on high-resolution CT</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>These cardiac complications are more frequently seen in Scleroderma than in CREST syndrome.</t>
+          <t>Interstitial lung disease is more commonly associated with scleroderma.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Gastrointestinal imaging showing delayed gastric emptying</t>
+          <t>Esophageal dilation on imaging</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>This finding is more prevalent in CREST syndrome due to autonomic dysfunction affecting gastric motility.</t>
+          <t>Dilation of the esophagus is more indicative of achalasia than scleroderma.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Laboratory tests showing renal involvement (elevated creatinine)</t>
+          <t>Reduced esophageal motility on manometry</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Renal crisis is a significant complication of Scleroderma, distinguishing it from CREST syndrome.</t>
+          <t>Reduced motility is common in scleroderma but not specific to achalasia.</t>
         </is>
       </c>
     </row>
